--- a/tables/peel_tables_scen.xlsx
+++ b/tables/peel_tables_scen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA6B76-D31C-2F4B-8054-7B5E0F4C02DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376A40BF-C9FB-054E-9630-445577069718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1440" windowWidth="26520" windowHeight="20040" activeTab="6" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="9660" yWindow="1440" windowWidth="26520" windowHeight="20040" activeTab="11" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="CH7_1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,12 @@
     <sheet name="fishmonit2" sheetId="9" r:id="rId6"/>
     <sheet name="econind" sheetId="11" r:id="rId7"/>
     <sheet name="shgoals" sheetId="10" r:id="rId8"/>
+    <sheet name="stories" sheetId="13" r:id="rId9"/>
+    <sheet name="scens" sheetId="14" r:id="rId10"/>
+    <sheet name="loads" sheetId="12" r:id="rId11"/>
+    <sheet name="econscen1" sheetId="15" r:id="rId12"/>
+    <sheet name="s" sheetId="16" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="17" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="4">fishmonit!$B$11</definedName>
@@ -49,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="339">
   <si>
     <t>Table</t>
   </si>
@@ -1912,21 +1918,6 @@
     <t>The net product of the above metrics is the potential for increasing the relative rate of job growth.</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
     <t>**Specialisation &amp; Diversity**</t>
   </si>
   <si>
@@ -1940,13 +1931,587 @@
   </si>
   <si>
     <t>**Local Job Creation**</t>
+  </si>
+  <si>
+    <t>$S_i$</t>
+  </si>
+  <si>
+    <t>$U_i$</t>
+  </si>
+  <si>
+    <t>$X_i$</t>
+  </si>
+  <si>
+    <t>$\rho_i,\:\beta_i$</t>
+  </si>
+  <si>
+    <t>$g_i$</t>
+  </si>
+  <si>
+    <t>Environmentally optimistic</t>
+  </si>
+  <si>
+    <t>Business as usual</t>
+  </si>
+  <si>
+    <t>Environmentally-pessimistic</t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EHI’s poor&lt;br&gt; •      Anoxia/HAB risk high&lt;br&gt;•      Short term employment high, but loss of long-term resilience in the economy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ecological Health Indices (EHI’s) good to excellent&lt;br&gt;•   Anoxia/HAB risk low, WQI high&lt;br&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EHI’s fair (but at risk of decline)&lt;br&gt;•   Anoxia/HAB moderate&lt;br&gt;•   Peel employment less than WA average&lt;br&gt;•   Peel employment less than WA average</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No new management practices implemented&lt;br&gt; •      ~Double anticipated urban and agricultural development^b^&lt;br&gt;•      2050 projected climate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">High implementation of:&lt;br&gt;*o	Soil amendments^a^&lt;br&gt;o	Riparian rehabilitation^a^&lt;br&gt;o	Fertiliser management^a^&lt;br&gt;o	Slow release fertilisers^a^&lt;br&gt;o	WWT plant effluent^a^&lt;br&gt;o	Dairy effluent management^a^&lt;br&gt;o	Point source management^a^&lt;br&gt;o	WSUD&lt;br&gt;o	catchment revegetation^a,^^b^&lt;br&gt;o	septic tank removal^a^&lt;br&gt;o	point source management (intensive agriculture)^a^&lt;br&gt;o	constructed wetlands*&lt;br&gt;&lt;br&gt;•	'SAPPR’ development footprint&lt;br&gt;o	*Planned urban development (on nutrient-retentive fill)&lt;br&gt;o	Planned industrial development&lt;br&gt;o	No further intensive agricultural development*&lt;br&gt;•	2050 projected climate </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>High government, industry &amp; community stewardship for estuary health&lt;br&gt; •      Healthy estuary&lt;br&gt;*o   Biodiverse; Ecologically healthy&lt;br&gt;o   High amenity&lt;br&gt;o   ↓ nutrients&lt;br&gt;*•      ↑ eco-tourism</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Anticipated 2050 population growth&lt;br&gt;•      No new management practices&lt;br&gt;•      Low government &amp; industry stewardship for estuary health</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Poor estuary health&lt;br&gt;*o   Poor WQ (low oxygen, ↑ algal blooms, ↑ nutrients)&lt;br&gt;o   Poor ecological health/biodiversity&lt;br&gt;o   Low amenity&lt;br&gt;o   Poor fishing/crabbing&lt;br&gt;*•      ↑↑ popn &amp; urban growth&lt;br&gt;•      ↑ agricultural development &lt;br&gt;•      Worse than expected climate change</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No new management practices implemented&lt;br&gt;•	 ‘SAPPR’ development footprint&lt;br&gt;*o   Planned urban and industrial development*&lt;br&gt;•      Peel Food zone developed&lt;br&gt;2050 projected climate</t>
+    </r>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>&lt;large&gt;**2050 Story**&lt;/large&gt;&lt;br&gt;&lt;small&gt;(Survey Q2a, 4)&lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Catchment land-use and management level</t>
+  </si>
+  <si>
+    <t>Climate</t>
+  </si>
+  <si>
+    <t>Base case (current climate)</t>
+  </si>
+  <si>
+    <t>0a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current land-use with no additional management </t>
+  </si>
+  <si>
+    <t>Climate based on pre-2018 conditions</t>
+  </si>
+  <si>
+    <t>Base case (future climate)</t>
+  </si>
+  <si>
+    <t>0b</t>
+  </si>
+  <si>
+    <t>Current land-use with no additional management</t>
+  </si>
+  <si>
+    <t>Climate based on 2050 model projection for dry climate</t>
+  </si>
+  <si>
+    <t>Environmentally optimistic (current climate)</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>Extensive catchment management and planned urban development</t>
+  </si>
+  <si>
+    <t>Environmentally optimistic (future climate)</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>Business as usual (current climate)</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>No catchment management and planned urban and agricultural development</t>
+  </si>
+  <si>
+    <t>Business as usual (future climate)</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>Environmentally pessimistic (current climate)</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>No catchment management and extensive urban and agricultural development</t>
+  </si>
+  <si>
+    <t>Environmentally pessimistic (future climate)</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>&lt;large&gt;**Drivers**&lt;/large&gt;&lt;br&gt;&lt;small&gt;(Land-use, management practice, climate; Survey Q2b)&lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>&lt;large&gt;**Expected index responses**&lt;br&gt;&lt;small&gt;(Reflecting values &amp; goals; Survey Q1 &amp; 3)&lt;/small&gt;</t>
+  </si>
+  <si>
+    <t>Scenario name</t>
+  </si>
+  <si>
+    <t>Scenario #</t>
+  </si>
+  <si>
+    <t>Flow (GL/yr)</t>
+  </si>
+  <si>
+    <t>Nitrogen (t/yr)</t>
+  </si>
+  <si>
+    <t>Phosphorus (t/yr)</t>
+  </si>
+  <si>
+    <t>Flow-weighted TN (mg/L)</t>
+  </si>
+  <si>
+    <t>Flow-weighted TP (mg/L)</t>
+  </si>
+  <si>
+    <t>Basecase</t>
+  </si>
+  <si>
+    <t>Env optimistic</t>
+  </si>
+  <si>
+    <t>Basiness as usual</t>
+  </si>
+  <si>
+    <t>Env pessimistic</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Risks &amp; Uncertainty</t>
+  </si>
+  <si>
+    <r>
+      <t>S&amp;D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Specialisation &amp; Diversity</t>
+    </r>
+  </si>
+  <si>
+    <t>The gradual loss of specialisation (e.g. in agriculture) may weaken the potential for job growth in traditional areas of advantage.</t>
+  </si>
+  <si>
+    <t>Unemployment</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The planned large-scale urban growth (as in Fig. 11.5), will continue to support construction jobs and associated supporting industries, driving down relative levels of unemployment</t>
+    </r>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Low unemployment may reduce regional competitiveness</t>
+  </si>
+  <si>
+    <r>
+      <t>EXO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Export orientation</t>
+    </r>
+  </si>
+  <si>
+    <t>Developers may need financial incentives and support to create urban spaces that encourage new industries and attract highly skilled labour</t>
+  </si>
+  <si>
+    <r>
+      <t>LJC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Local Job Creation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Overall, this scenario diversifies the base for export income, and encourages increased demand for supporting industries and services, encouraging the multiplier effect on new job creation.  This may not support the most rapid rate of job growth, but provides the most resilient system to external factors and plays to the regions comparative advantage.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gradual reduction in specialisation and export orientation in agriculture may limit drive for growth in this region</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Recent decline in agricultural job growth could be arrested through increased focus on improved agricultural land management and restoration in order to support local agribusiness to maintain a “clean-green” image and support a focus on markets within Australia and in Asia where this is increasingly valued. &lt;br&gt;·     Diversity in export income will create more resilience if jobs in the construction sector were to reduce in response to external drivers (e.g. mining sector down-turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Increased focus on creating tourism opportunities will add and diversify export income, thereby providing an independent driver of growth. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>&lt;br&gt;·     The existing export industries (mining and agriculture) would benefit from initiatives to improve technology adoption, increasing competitiveness. &lt;br&gt;·     More proactive land management may drive more diverse agricultural enterprise creating new export opportunities.&lt;br&gt;·     Under a climate drying scenario in particular the tourism export income may also emerge as a comparative advantage as nearby regions increasingly value coastal assets and activities.</t>
+    </r>
+  </si>
+  <si>
+    <t>It is unclear the scale of eco-tourism jobs that could be created under this scenario and strategies need to be in place to grow this sector &lt;br&gt;Decline in competitiveness of beef and dairy industry may reduce export income</t>
+  </si>
+  <si>
+    <t>$+$</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>New urban growth with a focus on livability (e.g. through WSUD and other design elements) will contribute to making the region desirable and encourage clustering and inter-industry linkages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>&lt;br&gt;·     Under this scenario, initiatives such as Peel Business Park may encourage manufacturing and small-medium enterprise. Combined with emerging areas (e.g. high technology agriculture) encouraging innovation will support.</t>
+    </r>
+  </si>
+  <si>
+    <t>$++$</t>
+  </si>
+  <si>
+    <t>Clustering&lt;br&gt;&lt;br&gt;*Inter-Industry Linkages&lt;br&gt;Growing &amp; Under-developed*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2103,8 +2668,43 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF695D46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF695D46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF695D46"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2171,8 +2771,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2340,12 +2952,202 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF4BACC6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF4BACC6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF4BACC6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF92CDDC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF92CDDC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2548,19 +3350,127 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3365,6 +4275,560 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F92B4FB-1D05-5B42-8331-718D698390AC}">
+  <dimension ref="B1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="70" x14ac:dyDescent="0.2">
+      <c r="B3" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="84" x14ac:dyDescent="0.2">
+      <c r="B4" s="89" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="93" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="B5" s="89" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="B6" s="89" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="126" x14ac:dyDescent="0.2">
+      <c r="B7" s="89" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="126" x14ac:dyDescent="0.2">
+      <c r="B8" s="89" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="126" x14ac:dyDescent="0.2">
+      <c r="B9" s="89" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>301</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" s="98" t="s">
+        <v>301</v>
+      </c>
+      <c r="E10" s="100" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="95"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="101"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D49BD74-666F-CE44-9F50-ED42C8BFB879}">
+  <dimension ref="B3:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4">
+        <v>369</v>
+      </c>
+      <c r="F4">
+        <v>633</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>1.7</v>
+      </c>
+      <c r="I4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5">
+        <v>385</v>
+      </c>
+      <c r="F5">
+        <v>504</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>1.3</v>
+      </c>
+      <c r="I5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6">
+        <v>385</v>
+      </c>
+      <c r="F6">
+        <v>745</v>
+      </c>
+      <c r="G6">
+        <v>84</v>
+      </c>
+      <c r="H6">
+        <v>1.9</v>
+      </c>
+      <c r="I6">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>394</v>
+      </c>
+      <c r="F7">
+        <v>808</v>
+      </c>
+      <c r="G7">
+        <v>92</v>
+      </c>
+      <c r="H7">
+        <v>2.1</v>
+      </c>
+      <c r="I7">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8">
+        <v>2050</v>
+      </c>
+      <c r="D8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E8">
+        <v>180</v>
+      </c>
+      <c r="F8">
+        <v>289</v>
+      </c>
+      <c r="G8">
+        <v>27</v>
+      </c>
+      <c r="H8">
+        <v>1.6</v>
+      </c>
+      <c r="I8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9">
+        <v>2050</v>
+      </c>
+      <c r="D9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9">
+        <v>139</v>
+      </c>
+      <c r="F9">
+        <v>233</v>
+      </c>
+      <c r="G9">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>1.2</v>
+      </c>
+      <c r="I9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10">
+        <v>2050</v>
+      </c>
+      <c r="D10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10">
+        <v>193</v>
+      </c>
+      <c r="F10">
+        <v>346</v>
+      </c>
+      <c r="G10">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <v>1.8</v>
+      </c>
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11">
+        <v>2050</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11">
+        <v>199</v>
+      </c>
+      <c r="F11">
+        <v>373</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
+      </c>
+      <c r="H11">
+        <v>1.9</v>
+      </c>
+      <c r="I11">
+        <v>0.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC62EA7-3729-BF47-BB84-93C3CD604876}">
+  <dimension ref="B1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="6" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="103" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="103" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="111" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="113" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="108" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="106" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="109" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="110" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="111" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" s="105" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="112" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="107" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="104" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>336</v>
+      </c>
+      <c r="E6" s="112" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="113" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="114" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" s="112" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="113" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8758AE18-9D29-C44E-B765-DF081DA7F2FA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7402B8-6C17-0D40-9DEA-F8320BCF0AA5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A23A5-CC22-BC4B-9A2C-8B4A274BF23B}">
   <dimension ref="A2:F10"/>
@@ -3948,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C9E47-9A91-4C44-81C1-76D9830D24C1}">
   <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4020,11 +5484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B13CF76-4F1D-4F40-8CA5-8D30EE05D855}">
-  <dimension ref="B1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B13CF76-4F1D-4F40-8CA5-8D30EE05D855}">
+  <dimension ref="B1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4046,10 +5510,10 @@
     </row>
     <row r="3" spans="2:4" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="67" t="s">
         <v>258</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>253</v>
       </c>
       <c r="D3" s="68" t="s">
         <v>248</v>
@@ -4057,10 +5521,10 @@
     </row>
     <row r="4" spans="2:4" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="69" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="70" t="s">
         <v>259</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>254</v>
       </c>
       <c r="D4" s="71" t="s">
         <v>249</v>
@@ -4068,10 +5532,10 @@
     </row>
     <row r="5" spans="2:4" ht="62" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="67" t="s">
         <v>260</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>255</v>
       </c>
       <c r="D5" s="68" t="s">
         <v>250</v>
@@ -4079,39 +5543,28 @@
     </row>
     <row r="6" spans="2:4" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="C6" s="75" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="74" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="74"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="78"/>
-    </row>
-    <row r="8" spans="2:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66" t="s">
+    <row r="7" spans="2:4" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="72" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="68" t="s">
+      <c r="D7" s="68" t="s">
         <v>252</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4319,4 +5772,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6EF479-3A4B-E04D-883F-FF7DB6F514F2}">
+  <dimension ref="B1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="78" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="154" x14ac:dyDescent="0.2">
+      <c r="B3" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="358" x14ac:dyDescent="0.2">
+      <c r="B4" s="80" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="70" x14ac:dyDescent="0.2">
+      <c r="B5" s="81" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+    </row>
+    <row r="7" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="69"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="85"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/peel_tables_scen.xlsx
+++ b/tables/peel_tables_scen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376A40BF-C9FB-054E-9630-445577069718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACE8771-02A9-1843-B71F-1B0779390554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1440" windowWidth="26520" windowHeight="20040" activeTab="11" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="9660" yWindow="1440" windowWidth="26520" windowHeight="20040" firstSheet="1" activeTab="12" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="CH7_1" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,8 @@
     <sheet name="scens" sheetId="14" r:id="rId10"/>
     <sheet name="loads" sheetId="12" r:id="rId11"/>
     <sheet name="econscen1" sheetId="15" r:id="rId12"/>
-    <sheet name="s" sheetId="16" r:id="rId13"/>
-    <sheet name="Sheet3" sheetId="17" r:id="rId14"/>
+    <sheet name="econscen2" sheetId="16" r:id="rId13"/>
+    <sheet name="econscen3" sheetId="17" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="4">fishmonit!$B$11</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="344">
   <si>
     <t>Table</t>
   </si>
@@ -2505,13 +2505,50 @@
   </si>
   <si>
     <t>Clustering&lt;br&gt;&lt;br&gt;*Inter-Industry Linkages&lt;br&gt;Growing &amp; Under-developed*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is unclear the scale of eco-tourism jobs that could be created under this scenario and strategies need to be in place to grow this sector  </t>
+  </si>
+  <si>
+    <t>**Tourism** &lt;br&gt; ·     Whilst tourism would be encouraged, poor land management would reduce opportunities for reaching scale in this industry. &lt;br&gt; &lt;br&gt; **Agriculture**&lt;br&gt;•	Exports orientation would be enhanced by strategic initiatives such as Peel Food Zone&lt;br&gt;•	Potential declines in agriculture exports due to loss of fishing &lt;br&gt;Incentives for adopting technology will drive efficiency but may fail to increase competitiveness.&lt;br&gt;•	Focus on intensive horticulture will create new export opportunities.</t>
+  </si>
+  <si>
+    <t>•	Recent decline in agricultural job growth could benefit from new focus on horticulture creating diversity in export income</t>
+  </si>
+  <si>
+    <t>•	The planned large-scale urban growth (as in Fig. 11.5), will continue to support construction jobs and associated supporting industries, driving down relative levels of unemployment</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF695D46"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New urban growth with a focus on livability (e.g. through WSUD and other design elements) will contribute to making the region desirable and encourage clustering and inter-industry linkages&lt;br&gt;·     Under this scenario, initiatives such as Peel Business Park may encourage manufacturing and small-medium enterprise. Combined with emerging areas (e.g. high technology agriculture) encouraging innovation will support.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2702,6 +2739,33 @@
       <color rgb="FF695D46"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF695D46"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF695D46"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3147,7 +3211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3410,6 +3474,45 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3434,44 +3537,23 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3489,6 +3571,1086 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12289" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB2FFBCD-3994-5213-B5D9-4AC27CEE7D72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="431800"/>
+          <a:ext cx="114300" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12290" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC14B92-F57B-2F21-A8EE-838B629C857E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="952500"/>
+          <a:ext cx="127000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12291" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED68539-F589-CF18-1BB6-EE7063501993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="1473200"/>
+          <a:ext cx="127000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12292" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD8690E-F958-ED28-1701-3B9D4BA17024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="1993900"/>
+          <a:ext cx="114300" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12293" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7FB34E-7CF0-6958-81B5-6CBBA6C7962E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="2514600"/>
+          <a:ext cx="127000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12294" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECCB5540-DED5-1F37-5F86-BDF9D137FADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="2514600"/>
+          <a:ext cx="127000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFA1A95-ABD1-0148-91D6-62649368AEE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="2565400"/>
+          <a:ext cx="114300" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E685F777-D84D-A946-8DA7-9D48BA961626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="3276600"/>
+          <a:ext cx="127000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19218C50-3CF8-1C4C-AA9A-30329568BA85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="3276600"/>
+          <a:ext cx="127000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD57ADE-92DC-3E45-A248-46E8E70115B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="431800"/>
+          <a:ext cx="114300" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E272675-F8C7-EE40-891F-ED6EAE4A9622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="1143000"/>
+          <a:ext cx="127000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4CF2DE-1481-1D48-8E3D-C91424E14149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="1854200"/>
+          <a:ext cx="127000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D88841-D25D-AB43-B2A1-DFF545BCE7F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="2565400"/>
+          <a:ext cx="114300" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA9E588-003B-A940-84F1-673157DECD8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="3276600"/>
+          <a:ext cx="127000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC11264-E4B7-2C45-9CE6-D356BEE1BE78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3060700" y="3276600"/>
+          <a:ext cx="127000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4402,24 +5564,24 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="107" t="s">
         <v>302</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="109" t="s">
         <v>303</v>
       </c>
-      <c r="D10" s="98" t="s">
+      <c r="D10" s="111" t="s">
         <v>301</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="113" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="95"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="101"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4682,11 +5844,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC62EA7-3729-BF47-BB84-93C3CD604876}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC62EA7-3729-BF47-BB84-93C3CD604876}">
   <dimension ref="B1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4696,136 +5858,363 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="103" t="s">
+      <c r="E2" s="95" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="95" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="111" t="s">
+    <row r="3" spans="2:6" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="103" t="s">
         <v>321</v>
       </c>
       <c r="C3" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="97" t="s">
         <v>332</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="E3" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="105" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="108" t="s">
+    <row r="4" spans="2:6" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="100" t="s">
         <v>323</v>
       </c>
       <c r="C4" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="98" t="s">
         <v>324</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="102" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="111" t="s">
+    <row r="5" spans="2:6" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="103" t="s">
         <v>327</v>
       </c>
       <c r="C5" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="97" t="s">
         <v>333</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="99" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="104" t="s">
+    <row r="6" spans="2:6" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="96" t="s">
         <v>338</v>
       </c>
       <c r="C6" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="97" t="s">
         <v>336</v>
       </c>
-      <c r="E6" s="112" t="s">
+      <c r="E6" s="104" t="s">
         <v>337</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="105" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="108" t="s">
+    <row r="7" spans="2:6" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="100" t="s">
         <v>329</v>
       </c>
       <c r="C7" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="114" t="s">
+      <c r="D7" s="106" t="s">
         <v>330</v>
       </c>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="104" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="105" t="s">
         <v>331</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8758AE18-9D29-C44E-B765-DF081DA7F2FA}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="6" width="20.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" s="115"/>
+    </row>
+    <row r="3" spans="2:10" ht="357" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="118" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="J3" s="116"/>
+    </row>
+    <row r="4" spans="2:10" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="103" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="118" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="119" t="s">
+        <v>322</v>
+      </c>
+      <c r="J4" s="116"/>
+    </row>
+    <row r="5" spans="2:10" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="119" t="s">
+        <v>326</v>
+      </c>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" spans="2:10" ht="286" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="96" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="118" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>328</v>
+      </c>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="106" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>331</v>
+      </c>
+      <c r="J7" s="116"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="116"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="116"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7402B8-6C17-0D40-9DEA-F8320BCF0AA5}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="103" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>332</v>
+      </c>
+      <c r="E4" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="385" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="100" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="103" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="96" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>337</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="100" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="106" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>331</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/tables/peel_tables_scen.xlsx
+++ b/tables/peel_tables_scen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD2/AED Dropbox/Matt Hipsey/PeelBook/deployed/peel-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACE8771-02A9-1843-B71F-1B0779390554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6B0720-5A95-8640-9B79-7AE631901BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="1440" windowWidth="26520" windowHeight="20040" firstSheet="1" activeTab="12" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
+    <workbookView xWindow="9660" yWindow="1440" windowWidth="26520" windowHeight="20040" firstSheet="1" activeTab="13" xr2:uid="{28B11EC1-9C24-E649-9168-BB713EB9C355}"/>
   </bookViews>
   <sheets>
     <sheet name="CH7_1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="loads" sheetId="12" r:id="rId11"/>
     <sheet name="econscen1" sheetId="15" r:id="rId12"/>
     <sheet name="econscen2" sheetId="16" r:id="rId13"/>
-    <sheet name="econscen3" sheetId="17" r:id="rId14"/>
+    <sheet name="econscen3" sheetId="18" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_ftn1" localSheetId="4">fishmonit!$B$11</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="349">
   <si>
     <t>Table</t>
   </si>
@@ -2513,12 +2513,15 @@
     <t>**Tourism** &lt;br&gt; ·     Whilst tourism would be encouraged, poor land management would reduce opportunities for reaching scale in this industry. &lt;br&gt; &lt;br&gt; **Agriculture**&lt;br&gt;•	Exports orientation would be enhanced by strategic initiatives such as Peel Food Zone&lt;br&gt;•	Potential declines in agriculture exports due to loss of fishing &lt;br&gt;Incentives for adopting technology will drive efficiency but may fail to increase competitiveness.&lt;br&gt;•	Focus on intensive horticulture will create new export opportunities.</t>
   </si>
   <si>
-    <t>•	Recent decline in agricultural job growth could benefit from new focus on horticulture creating diversity in export income</t>
-  </si>
-  <si>
     <t>•	The planned large-scale urban growth (as in Fig. 11.5), will continue to support construction jobs and associated supporting industries, driving down relative levels of unemployment</t>
   </si>
   <si>
+    <t>•	Recent decline in agricultural job growth could benefit from new focus on horticulture, creating diversity in export income</t>
+  </si>
+  <si>
+    <t>The gradual loss of specialisation (e.g., in agriculture) may weaken the potential for job growth in traditional areas of advantage.</t>
+  </si>
+  <si>
     <r>
       <t>·</t>
     </r>
@@ -2540,8 +2543,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>New urban growth with a focus on livability (e.g. through WSUD and other design elements) will contribute to making the region desirable and encourage clustering and inter-industry linkages&lt;br&gt;·     Under this scenario, initiatives such as Peel Business Park may encourage manufacturing and small-medium enterprise. Combined with emerging areas (e.g. high technology agriculture) encouraging innovation will support.</t>
-    </r>
+      <t>New urban growth with a focus on livability (e.g. through WSUD and other design elements) will contribute to making the region desirable and encourage clustering and inter-industry linkages&lt;br&gt;·     Under this scenario, initiatives such as Peel Business Park may encourage manufacturing and small-medium enterprise. Combined with emerging areas (e.g., high technology agriculture) encouraging innovation will support.</t>
+    </r>
+  </si>
+  <si>
+    <t>**Tourism** &lt;br&gt; ·     Whilst tourism would be encouraged, poor land management would reduce opportunities for reaching scale in this industry. &lt;br&gt; &lt;br&gt; **Agriculture**&lt;br&gt;•	Exports orientation would be enhanced by strategic initiatives such as Peel Food Zone&lt;br&gt;•	Declines in agriculture exports likely due to loss of fishing &lt;br&gt;Incentives for adopting technology will drive efficiency but may fail to increase competitiveness.&lt;br&gt;•	Focus on intensive horticulture will create new export opportunities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eco-tourism jobs unlikely to feature heavily in this scenario  </t>
+  </si>
+  <si>
+    <t>•	Recent decline in agricultural job growth could benefit from new focus on horticulture, creating diversity in export income&lt;br&gt;•	Less green economy jobs</t>
+  </si>
+  <si>
+    <t>$-$</t>
   </si>
 </sst>
 </file>
@@ -3211,7 +3226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3543,17 +3558,47 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4148,77 +4193,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19218C50-3CF8-1C4C-AA9A-30329568BA85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3060700" y="3276600"/>
-          <a:ext cx="127000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4228,13 +4202,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4242,7 +4216,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD57ADE-92DC-3E45-A248-46E8E70115B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDA82EA-6754-8748-872D-65D091AD512A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4275,7 +4249,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3060700" y="431800"/>
+          <a:off x="2400300" y="6959600"/>
           <a:ext cx="114300" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4299,21 +4273,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E272675-F8C7-EE40-891F-ED6EAE4A9622}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA23A33A-1F36-B243-91D0-C769BE9030BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4346,292 +4320,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3060700" y="1143000"/>
-          <a:ext cx="127000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA4CF2DE-1481-1D48-8E3D-C91424E14149}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3060700" y="1854200"/>
-          <a:ext cx="127000" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D88841-D25D-AB43-B2A1-DFF545BCE7F8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3060700" y="2565400"/>
-          <a:ext cx="114300" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA9E588-003B-A940-84F1-673157DECD8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3060700" y="3276600"/>
+          <a:off x="2400300" y="10401300"/>
           <a:ext cx="127000" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC11264-E4B7-2C45-9CE6-D356BEE1BE78}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3060700" y="3276600"/>
-          <a:ext cx="127000" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5969,8 +5659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8758AE18-9D29-C44E-B765-DF081DA7F2FA}">
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5997,92 +5687,92 @@
       </c>
       <c r="J2" s="115"/>
     </row>
-    <row r="3" spans="2:10" ht="357" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="103" t="s">
+    <row r="3" spans="2:10" ht="315" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="117" t="s">
         <v>327</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="121" t="s">
         <v>260</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="119" t="s">
         <v>340</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="120" t="s">
         <v>335</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="122" t="s">
         <v>339</v>
       </c>
       <c r="J3" s="116"/>
     </row>
-    <row r="4" spans="2:10" ht="91" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="103" t="s">
+    <row r="4" spans="2:10" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="117" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="118" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="119" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="123" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" s="116"/>
+    </row>
+    <row r="5" spans="2:10" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="124" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="125" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="126" t="s">
         <v>341</v>
-      </c>
-      <c r="E4" s="104" t="s">
-        <v>335</v>
-      </c>
-      <c r="F4" s="119" t="s">
-        <v>322</v>
-      </c>
-      <c r="J4" s="116"/>
-    </row>
-    <row r="5" spans="2:10" ht="141" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="100" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" s="120" t="s">
-        <v>342</v>
       </c>
       <c r="E5" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="123" t="s">
         <v>326</v>
       </c>
       <c r="J5" s="83"/>
     </row>
-    <row r="6" spans="2:10" ht="286" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
+    <row r="6" spans="2:10" ht="271" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="128" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="118" t="s">
-        <v>343</v>
-      </c>
-      <c r="E6" s="104" t="s">
+      <c r="D6" s="119" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" s="120" t="s">
         <v>337</v>
       </c>
-      <c r="F6" s="105" t="s">
+      <c r="F6" s="129" t="s">
         <v>328</v>
       </c>
       <c r="J6" s="116"/>
     </row>
     <row r="7" spans="2:10" ht="225" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="124" t="s">
         <v>329</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="121" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="130" t="s">
         <v>330</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="120" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="129" t="s">
         <v>331</v>
       </c>
       <c r="J7" s="116"/>
@@ -6100,117 +5790,132 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7402B8-6C17-0D40-9DEA-F8320BCF0AA5}">
-  <dimension ref="B2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92332D96-53FE-EB46-906F-45A53FEAEA53}">
+  <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="6" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:6" ht="46" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C2" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D2" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E2" s="95" t="s">
         <v>319</v>
       </c>
-      <c r="F3" s="95" t="s">
+      <c r="F2" s="95" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="103" t="s">
+      <c r="J2" s="115"/>
+    </row>
+    <row r="3" spans="2:10" ht="329" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="117" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>325</v>
+      </c>
+      <c r="F3" s="122" t="s">
+        <v>346</v>
+      </c>
+      <c r="J3" s="116"/>
+    </row>
+    <row r="4" spans="2:10" ht="106" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="117" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="118" t="s">
         <v>258</v>
       </c>
-      <c r="D4" s="97" t="s">
-        <v>332</v>
-      </c>
-      <c r="E4" s="104" t="s">
-        <v>335</v>
-      </c>
-      <c r="F4" s="105" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="385" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="100" t="s">
+      <c r="D4" s="119" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="120" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" s="123" t="s">
+        <v>343</v>
+      </c>
+      <c r="J4" s="116"/>
+    </row>
+    <row r="5" spans="2:10" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="124" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="125" t="s">
         <v>259</v>
       </c>
-      <c r="D5" s="98" t="s">
-        <v>324</v>
+      <c r="D5" s="126" t="s">
+        <v>341</v>
       </c>
       <c r="E5" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="123" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="103" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="97" t="s">
-        <v>333</v>
-      </c>
-      <c r="E6" s="104" t="s">
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" spans="2:10" ht="271" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="127" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="128" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>337</v>
+      </c>
+      <c r="F6" s="129" t="s">
+        <v>328</v>
+      </c>
+      <c r="J6" s="116"/>
+    </row>
+    <row r="7" spans="2:10" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="124" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="130" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" s="120" t="s">
         <v>335</v>
       </c>
-      <c r="F6" s="99" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="96" t="s">
-        <v>338</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>336</v>
-      </c>
-      <c r="E7" s="104" t="s">
-        <v>337</v>
-      </c>
-      <c r="F7" s="105" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="100" t="s">
-        <v>329</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="106" t="s">
-        <v>330</v>
-      </c>
-      <c r="E8" s="104" t="s">
-        <v>335</v>
-      </c>
-      <c r="F8" s="105" t="s">
+      <c r="F7" s="129" t="s">
         <v>331</v>
       </c>
+      <c r="J7" s="116"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="116"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
